--- a/medicine/Œil et vue/Charles_Abadie/Charles_Abadie.xlsx
+++ b/medicine/Œil et vue/Charles_Abadie/Charles_Abadie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Marie Charles Abadie, né le 25 mars 1842 à Saint-Gaudens (Haute-Garonne)  et mort le 29 juin 1932 à Cahuzac-sur-Vère (Tarn), est un médecin ophtalmologiste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son doctorat en médecine en 1870 et exerce à l'Hôtel-Dieu de Paris. Il s'intéresse particulièrement au traitement du trachome et du glaucome[1] et fut le premier à réaliser l'alcoolisation du ganglion de Gasser comme traitement de la névralgie du trijumeau.[réf. souhaitée]
-Il reçoit la Légion d'Honneur en 1981[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son doctorat en médecine en 1870 et exerce à l'Hôtel-Dieu de Paris. Il s'intéresse particulièrement au traitement du trachome et du glaucome et fut le premier à réaliser l'alcoolisation du ganglion de Gasser comme traitement de la névralgie du trijumeau.[réf. souhaitée]
+Il reçoit la Légion d'Honneur en 1981.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Eponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a laissé son nom au « signe d'Abadie »[3] en ophtalmologie : la rétraction de la paupière supérieure observée dans la maladie de Basedow. Ce signe est dû à une activité augmentée du muscle releveur de la paupière supérieure (Levator palpebrae superioris).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a laissé son nom au « signe d'Abadie » en ophtalmologie : la rétraction de la paupière supérieure observée dans la maladie de Basedow. Ce signe est dû à une activité augmentée du muscle releveur de la paupière supérieure (Levator palpebrae superioris).
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude sur la Myopie stationnaire et progressive, [thèse], 1870.
 Sur la valeur séméiologique de l'hémiopie dans les affections cérébrales, aux bureaux du Progrès médical (Paris), 1875, lire en ligne sur Gallica.
 Traité des maladies des yeux, O. Doin (Paris), 1876-1877 :
 Tome premier, volume 1 lire en ligne sur Gallica, volume 2 lire en ligne sur Gallica.
 Tome second, volume 1lire en ligne sur Gallica , volume 2 lire en ligne sur Gallica.
-Leçons de clinique ophtalmologique, [recueillies par le Dr Parenteau], 1881. [1]
+Leçons de clinique ophtalmologique, [recueillies par le Dr Parenteau], 1881. 
 De l'Ophtalmie virulente, impr. de V. Goupy et Jourdan (Paris), 1885, lire en ligne sur Gallica.
 « Section du sympathique cervical dans les formes graves du goitre exophtalmique », Revue neurologique, 1896, p. 715, Texte intégral.
 En collaboration
